--- a/Assesments/Final Project/Pica Requirements .xlsx
+++ b/Assesments/Final Project/Pica Requirements .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="593" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="593"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Story" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
   <si>
     <t>Input</t>
   </si>
@@ -317,7 +317,7 @@
       <name val="ZapfDingbatsITC"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +336,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -346,7 +352,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,8 +422,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -430,8 +438,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -466,6 +475,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -500,6 +510,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,15 +1216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1222,8 +1233,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6426200" y="812800"/>
-          <a:ext cx="1397000" cy="711200"/>
+          <a:off x="7772400" y="812800"/>
+          <a:ext cx="1231900" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3411,10 +3422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3585,13 +3596,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3599,37 +3610,21 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3646,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3673,11 +3668,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="4" spans="1:9">
       <c r="I4" t="s">
         <v>24</v>
@@ -3756,11 +3746,6 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3780,7 +3765,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3805,11 +3790,6 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="4" spans="1:9">
       <c r="I4" t="s">
         <v>58</v>
@@ -3855,9 +3835,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:9">
@@ -3921,7 +3899,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="A1:J30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4074,7 +4052,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4085,9 +4063,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
@@ -4222,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4233,9 +4213,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
